--- a/finalExam/FDCproduct.xlsx
+++ b/finalExam/FDCproduct.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="20415" windowHeight="7770"/>
   </bookViews>
@@ -15,36 +15,47 @@
     <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$C$22:$D$31</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$D$37:$D$41</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$D$42:$D$51</definedName>
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$D$52:$D$56</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$33</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$F$37:$F$41</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$F$42:$F$51</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$F$52:$F$56</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.05</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="35">
   <si>
     <t>weekly demand</t>
   </si>
@@ -163,13 +174,16 @@
   <si>
     <t>machine offline</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>yield factors</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -259,13 +273,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -278,9 +305,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -290,14 +314,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -305,17 +341,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -328,11 +361,16 @@
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -406,6 +444,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -440,6 +479,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,14 +655,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.125" customWidth="1"/>
     <col min="3" max="3" width="12.625" customWidth="1"/>
@@ -632,65 +673,84 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27">
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="C4" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>1</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="17">
         <v>2450</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="C5" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="17">
         <v>2100</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="C6" s="18">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="4">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="B7" s="17">
+        <f>2800+100</f>
+        <v>2900</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="17">
         <v>2800</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="C8" s="18">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="17">
         <v>1960</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="C9" s="18">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>3</v>
@@ -708,7 +768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -722,7 +782,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -738,7 +798,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -750,7 +810,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -764,7 +824,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>12</v>
       </c>
@@ -778,209 +838,216 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="9" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6">
-        <v>40</v>
-      </c>
-      <c r="D22" s="6">
-        <v>21.249999964611259</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>32.083333333333329</v>
+      </c>
+      <c r="E22" s="8">
         <f>SUM(C22:D22)</f>
-        <v>61.249999964611263</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="8"/>
-      <c r="B23" s="11" t="s">
+        <v>32.083333333333329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>0</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
+        <v>80</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" ref="E23:E31" si="0">SUM(C23:D23)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
         <v>0</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" ref="E23:E31" si="0">SUM(C23:D23)</f>
+      <c r="D24" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="6">
-        <v>0</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5">
+        <v>77.494949494949424</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>77.494949494949424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>42.666666666666657</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>42.666666666666657</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
         <v>40</v>
       </c>
-      <c r="D25" s="6">
-        <v>29.999999979744004</v>
-      </c>
-      <c r="E25" s="10">
+      <c r="D27" s="5">
+        <v>37.333333333333343</v>
+      </c>
+      <c r="E27" s="8">
         <f t="shared" si="0"/>
-        <v>69.999999979744004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="6">
+        <v>77.333333333333343</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
         <v>0</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D28" s="5">
+        <v>47.916666666666671</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>47.916666666666671</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5">
         <v>0</v>
       </c>
-      <c r="E26" s="10">
+      <c r="D29" s="5">
+        <v>23.878205128205124</v>
+      </c>
+      <c r="E29" s="8">
         <f t="shared" si="0"/>
+        <v>23.878205128205124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>55.999999999999986</v>
-      </c>
-      <c r="E27" s="10">
+      <c r="D30" s="5">
+        <v>2.5050505050505762</v>
+      </c>
+      <c r="E30" s="8">
         <f t="shared" si="0"/>
-        <v>55.999999999999986</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>46.666666666666657</v>
-      </c>
-      <c r="E28" s="10">
+        <v>2.5050505050505762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>6.9569930069929349</v>
+      </c>
+      <c r="D31" s="5">
+        <v>56.121794871794876</v>
+      </c>
+      <c r="E31" s="8">
         <f t="shared" si="0"/>
-        <v>46.666666666666657</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="6">
-        <v>0</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="8"/>
-      <c r="B31" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="6">
-        <v>39.200000009798011</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>39.200000009798011</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>63.078787878787807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <f>SUM(C22:C31)</f>
-        <v>119.200000009798</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>46.956993006992931</v>
+      </c>
+      <c r="H33">
+        <v>44.156999999999996</v>
+      </c>
+      <c r="J33">
+        <f>C33-H33</f>
+        <v>2.7999930069929349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D36" t="s">
         <v>19</v>
       </c>
@@ -991,356 +1058,356 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D37" s="13">
-        <f>E22*B14+E23*C14</f>
-        <v>2449.9999985844506</v>
-      </c>
-      <c r="E37" s="13" t="s">
+      <c r="D37" s="10">
+        <f>(E22*B14+E23*C14)*C5</f>
+        <v>2449.9999999999995</v>
+      </c>
+      <c r="E37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="11">
         <f>B5</f>
         <v>2450</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="11" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="13">
-        <f>E24*C15+E25*D15+E26*E15</f>
-        <v>2099.9999993923202</v>
-      </c>
-      <c r="E38" s="13" t="s">
+      <c r="D38" s="10">
+        <f>(E24*C15+E25*D15+E26*E15)*C6</f>
+        <v>2099.9999999999986</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="11">
         <f t="shared" ref="F38:F41" si="1">B6</f>
         <v>2100</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="11" t="s">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="15"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D39" s="13">
-        <f>E27*E16</f>
-        <v>2799.9999999999991</v>
-      </c>
-      <c r="E39" s="13" t="s">
+      <c r="D39" s="10">
+        <f>E27*E16*C7</f>
+        <v>2900</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="11">
+        <f t="shared" si="1"/>
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="10">
+        <f>(E28*B17+E29*F17)*C8</f>
+        <v>2800</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="11">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="13">
-        <f>E28*B17+E29*F17</f>
-        <v>2799.9999999999995</v>
-      </c>
-      <c r="E40" s="13" t="s">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="15"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="10">
+        <f>(E30*D18+E31*F18)*C9</f>
+        <v>1959.9999999999995</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="F40" s="14">
-        <f t="shared" si="1"/>
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="13">
-        <f>E30*D18+E31*F18</f>
-        <v>1960.0000004899005</v>
-      </c>
-      <c r="E41" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F41" s="14">
+      <c r="F41" s="11">
         <f t="shared" si="1"/>
         <v>1960</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="15" t="s">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="16" t="s">
+      <c r="B42" s="13"/>
+      <c r="C42" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="10">
         <f>SUM(C22,C28)</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" s="10">
         <v>40</v>
       </c>
-      <c r="E42" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F42" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16" t="s">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="10">
         <f>SUM(C23,C24)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="13" t="s">
+      <c r="E43" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="16" t="s">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="10">
         <f>SUM(C25,C30)</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="10">
         <v>40</v>
       </c>
-      <c r="E44" s="13" t="s">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="10">
+        <f>SUM(C26,C27)</f>
+        <v>40</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="10">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16" t="s">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="10">
+        <f>SUM(C29,C31)</f>
+        <v>6.9569930069929349</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A47" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="10">
+        <f>SUM(D22,D28)</f>
+        <v>80</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="10">
+        <f>SUM(D23,D24)</f>
+        <v>80</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="10">
+        <f>SUM(D25,D30)</f>
+        <v>80</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F49" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="13">
-        <f>SUM(C26,C27)</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="13" t="s">
+      <c r="D50" s="10">
+        <f>SUM(D26,D27)</f>
+        <v>80</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F45" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="16" t="s">
+      <c r="F50" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="13">
-        <f>SUM(C29,C31)</f>
-        <v>39.200000009798011</v>
-      </c>
-      <c r="E46" s="13" t="s">
+      <c r="D51" s="10">
+        <f>SUM(D29,D31)</f>
+        <v>80</v>
+      </c>
+      <c r="E51" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16" t="s">
+      <c r="F51" s="10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="13">
-        <f>SUM(D22,D28)</f>
-        <v>67.91666663127792</v>
-      </c>
-      <c r="E47" s="13" t="s">
+      <c r="D52" s="10">
+        <f>SUM(E22,E28)</f>
+        <v>80</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F52" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="10">
+        <f>SUM(E23,E24)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="13">
-        <f>SUM(D23,D24)</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="13" t="s">
+      <c r="E53" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F53" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="10">
+        <f>SUM(E25,E30)</f>
         <v>80</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="13">
-        <f>SUM(D25,D30)</f>
-        <v>29.999999979744004</v>
-      </c>
-      <c r="E49" s="13" t="s">
+      <c r="E54" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="16" t="s">
+      <c r="F54" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="13">
-        <f>SUM(D26,D27)</f>
-        <v>55.999999999999986</v>
-      </c>
-      <c r="E50" s="13" t="s">
+      <c r="D55" s="10">
+        <f>SUM(E26,E27)</f>
+        <v>120</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="15"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16" t="s">
+      <c r="F55" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="13">
-        <f>SUM(D29,D31)</f>
-        <v>0</v>
-      </c>
-      <c r="E51" s="13" t="s">
+      <c r="D56" s="10">
+        <f>SUM(E29,E31)</f>
+        <v>86.956993006992931</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="13">
-        <f>SUM(E22,E28)</f>
-        <v>107.91666663127792</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F52" s="13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D53" s="13">
-        <f>SUM(E23,E24)</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F53" s="13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="13">
-        <f>SUM(E25,E30)</f>
-        <v>69.999999979744004</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F54" s="13">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="13">
-        <f>SUM(E26,E27)</f>
-        <v>55.999999999999986</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F55" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="13">
-        <f>SUM(E29,E31)</f>
-        <v>39.200000009798011</v>
-      </c>
-      <c r="E56" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="13">
+      <c r="F56" s="10">
         <v>120</v>
       </c>
     </row>
@@ -1361,12 +1428,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1374,12 +1442,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
